--- a/CashFlow/PODD_cashflow.xlsx
+++ b/CashFlow/PODD_cashflow.xlsx
@@ -742,19 +742,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>479000000.0</v>
+        <v>-50500000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>314846000.0</v>
+        <v>78100000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>183846000.0</v>
+        <v>92200000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>68546000.0</v>
+        <v>88500000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>-30154000.0</v>
+        <v>81000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-33521000.0</v>
